--- a/replication_package/RQ1&RQ3/dataset_quantum-enabled_projects_RQ1&RQ3.xlsx
+++ b/replication_package/RQ1&RQ3/dataset_quantum-enabled_projects_RQ1&RQ3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\lavoro_di_ricerca\RQ1&amp;RQ3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Cross_Sectional_Analysis_of_Quantum_Specific_Code_Smells_in_Open_Source_Software_Communities_RP\replication_package\RQ1&amp;RQ3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC584DCC-F56E-4D74-B178-BEBFEE99749B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68858A18-894E-4E5C-9EE9-2E9478458630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2196" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1085,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
